--- a/public/template/template-wfm.xlsx
+++ b/public/template/template-wfm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/pmt-erp/public/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888F5000-EC63-874C-9706-492CB124C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7CECE-7935-4F4E-96F2-7133FD0EB7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{061349BA-26CE-4D44-9A9F-91F6EBB2C1F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cluster</t>
   </si>
   <si>
-    <t>Signum</t>
-  </si>
-  <si>
     <t>FT name</t>
   </si>
   <si>
@@ -52,6 +49,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>OSM</t>
+  </si>
+  <si>
+    <t>Signum/NIK</t>
   </si>
 </sst>
 </file>
@@ -422,20 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82E42D3-2303-F74C-BEAD-6772F2CEBE49}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -450,16 +460,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/template-wfm.xlsx
+++ b/public/template/template-wfm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7CECE-7935-4F4E-96F2-7133FD0EB7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E450D59-55B0-3740-9282-13D052013E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{061349BA-26CE-4D44-9A9F-91F6EBB2C1F9}"/>
   </bookViews>
@@ -27,40 +27,139 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>FT name</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
-    <t>Treshold</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Coordinator</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>OSM</t>
-  </si>
-  <si>
-    <t>Signum/NIK</t>
+    <r>
+      <t xml:space="preserve">Signum/NIK </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Region </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FT name </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sub Region </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cluster </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Treshold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Coordinator (NIK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SM (NIK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OSM (NIK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -70,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -434,51 +539,53 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
